--- a/app/config/tables/MIFCRIANCA/forms/MIFCRIANCA/MIFCRIANCA.xlsx
+++ b/app/config/tables/MIFCRIANCA/forms/MIFCRIANCA/MIFCRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8415E6-5941-4F9B-813D-B6077D57F383}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D81D755-1A7F-4B7F-B11F-29DC839EA4C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="124">
   <si>
     <t>setting_name</t>
   </si>
@@ -159,63 +159,9 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>OUTSTATUS</t>
-  </si>
-  <si>
     <t>OUTDATE</t>
   </si>
   <si>
-    <t>OUTDATE_PRECIS</t>
-  </si>
-  <si>
-    <t>ABMES</t>
-  </si>
-  <si>
-    <t>LITTERSIZE</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>inf1</t>
-  </si>
-  <si>
-    <t>inf2</t>
-  </si>
-  <si>
-    <t>GRINFOS</t>
-  </si>
-  <si>
-    <t>GRCONS</t>
-  </si>
-  <si>
-    <t>CART_ANC</t>
-  </si>
-  <si>
-    <t>FEDEP_C</t>
-  </si>
-  <si>
-    <t>FEDEP_M</t>
-  </si>
-  <si>
-    <t>QVFANSI_C</t>
-  </si>
-  <si>
-    <t>LOCPAR</t>
-  </si>
-  <si>
-    <t>ASSISTPART</t>
-  </si>
-  <si>
-    <t>CDG_C</t>
-  </si>
-  <si>
-    <t>CDG_M</t>
-  </si>
-  <si>
-    <t>GRVAC</t>
-  </si>
-  <si>
     <t>display.title.text.english</t>
   </si>
   <si>
@@ -240,12 +186,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>Crianca</t>
-  </si>
-  <si>
     <t>MIFCRIANCA</t>
   </si>
   <si>
@@ -253,6 +193,227 @@
   </si>
   <si>
     <t>Mulher na idade fertil - criancas</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>REGDIA</t>
+  </si>
+  <si>
+    <t>PREGID</t>
+  </si>
+  <si>
+    <t>load some things!</t>
+  </si>
+  <si>
+    <t>select_one_dropdown</t>
+  </si>
+  <si>
+    <t>region_csv</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>tabanca_csv</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>Tabanca</t>
+  </si>
+  <si>
+    <t>choice_item.REG === data('REG')</t>
+  </si>
+  <si>
+    <t>AMO</t>
+  </si>
+  <si>
+    <t>Amostra</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>"TABANCAS.csv"</t>
+  </si>
+  <si>
+    <t>_.chain(context)
+.uniq(function(x) {
+return x.REG
+})
+.map(function(place){
+return {
+data_value:place.REG,
+display:{title: {text: place.REGIAO} } };
+}).value()</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){place.data_value = place.TAB;
+place.display = {title: {text: place.TABANCA} };
+return place;
+})</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>Morança</t>
+  </si>
+  <si>
+    <t>CASA</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>FOGAO</t>
+  </si>
+  <si>
+    <t>Fogao</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Name of the child</t>
+  </si>
+  <si>
+    <t>Nome da criança</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Macho</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Dont know</t>
+  </si>
+  <si>
+    <t>Fêmea</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>Sex of the child</t>
+  </si>
+  <si>
+    <t>Sexo da criança</t>
+  </si>
+  <si>
+    <t>Nascimento da criança</t>
+  </si>
+  <si>
+    <t>Birth of the child</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>data('SEX') == '3' || data('SEX') == null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if </t>
+  </si>
+  <si>
+    <t>REGIDC</t>
+  </si>
+  <si>
+    <t>Child ID</t>
+  </si>
+  <si>
+    <t>ID da criança</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>ID = ?</t>
+  </si>
+  <si>
+    <t>[data('ID')]</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{ID: data('ID')}</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>YesNoU</t>
+  </si>
+  <si>
+    <t>MALFORM</t>
+  </si>
+  <si>
+    <t>Any malformations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>data('MALFORM') == '1'</t>
+  </si>
+  <si>
+    <t>MALFORM_TYPE</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>Type?</t>
   </si>
 </sst>
 </file>
@@ -262,7 +423,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +469,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -347,7 +515,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -361,11 +529,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -651,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
@@ -674,13 +844,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
@@ -691,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,7 +904,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -756,7 +926,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -767,11 +937,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -822,23 +992,283 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
         <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -850,11 +1280,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,9 +1295,11 @@
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
@@ -895,21 +1327,79 @@
       <c r="I1" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="J3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,7 +1412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A2:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,8 +1437,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="9"/>
     </row>
   </sheetData>
@@ -958,11 +1462,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,10 +1485,100 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -995,11 +1589,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,10 +1616,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1033,7 +1627,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1044,10 +1638,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1055,10 +1649,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1066,7 +1660,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1077,7 +1671,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1088,7 +1682,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1099,10 +1693,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1110,62 +1704,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1176,10 +1726,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1187,10 +1737,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1198,42 +1748,17 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MIFCRIANCA/forms/MIFCRIANCA/MIFCRIANCA.xlsx
+++ b/app/config/tables/MIFCRIANCA/forms/MIFCRIANCA/MIFCRIANCA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D81D755-1A7F-4B7F-B11F-29DC839EA4C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F42391-7173-44D5-8E39-2CA3EDD80802}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
   <si>
     <t>setting_name</t>
   </si>
@@ -356,21 +356,9 @@
     <t>linked_table</t>
   </si>
   <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>ID = ?</t>
-  </si>
-  <si>
-    <t>[data('ID')]</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
-    <t>{ID: data('ID')}</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -414,6 +402,27 @@
   </si>
   <si>
     <t>Type?</t>
+  </si>
+  <si>
+    <t>MIFCRIANCA_VISIT</t>
+  </si>
+  <si>
+    <t>Child Visit</t>
+  </si>
+  <si>
+    <t>Child visit</t>
+  </si>
+  <si>
+    <t>CHILD_VISIT</t>
+  </si>
+  <si>
+    <t>REGIDC = ?</t>
+  </si>
+  <si>
+    <t>[data('REGIDC')]</t>
+  </si>
+  <si>
+    <t>{REGIDC: data('REGIDC')}</t>
   </si>
 </sst>
 </file>
@@ -477,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +496,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +530,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -536,6 +551,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -937,11 +953,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,12 +1157,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1176,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>25</v>
       </c>
@@ -1188,17 +1204,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>25</v>
       </c>
@@ -1212,62 +1228,93 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>81</v>
       </c>
       <c r="F28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1282,9 +1329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,28 +1421,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1442,13 +1489,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1493,44 +1540,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>92</v>
